--- a/data/out/standings_wc_eufa.xlsx
+++ b/data/out/standings_wc_eufa.xlsx
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -824,7 +824,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -873,7 +873,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -922,7 +922,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -971,7 +971,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1020,7 +1020,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1069,7 +1069,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,7 +1118,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Spain', 'Uruguay', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1167,7 +1167,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Republic of Ireland']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1269,7 +1269,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1367,7 +1367,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1416,7 +1416,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1465,7 +1465,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+          <t>['Italy', 'Republic of Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
+          <t>['Italy', 'Norway', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+          <t>['Italy', 'Republic of Ireland', 'Mexico']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1620,7 +1620,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1771,7 +1771,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1820,7 +1820,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1918,7 +1918,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1967,7 +1967,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2065,7 +2065,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2114,7 +2114,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2212,7 +2212,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2408,7 +2408,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -2710,7 +2710,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2759,7 +2759,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3057,7 +3057,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3155,7 +3155,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Ghana', 'Serbia']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['New Zealand', 'Paraguay']</t>
+          <t>['Paraguay', 'New Zealand']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -3816,7 +3816,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3865,7 +3865,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -4016,7 +4016,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -4216,7 +4216,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4314,7 +4314,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4363,7 +4363,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4412,7 +4412,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4510,7 +4510,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4559,7 +4559,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Colombia', 'Japan']</t>
+          <t>['Japan', 'Colombia']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -4808,7 +4808,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -5061,7 +5061,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5159,7 +5159,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
